--- a/data/trans_camb/P23_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_2_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,86</t>
+          <t>-5,62; 9,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 9,27</t>
+          <t>-7,8; 5,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 5,31</t>
+          <t>-2,82; 13,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -0,09</t>
+          <t>-8,25; 9,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,24</t>
+          <t>-12,53; 5,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,19</t>
+          <t>-5,66; 13,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 8,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 3,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 11,35</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-13,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-13,48%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 50,0</t>
+          <t>-40,46; 126,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 81,31</t>
+          <t>-53,81; 78,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 24,78</t>
+          <t>-21,05; 170,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -0,42</t>
+          <t>-26,4; 44,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 17,42</t>
+          <t>-40,58; 26,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 7,13</t>
+          <t>-19,21; 63,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,39; 51,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-37,52; 19,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,25; 69,69</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 9,19</t>
+          <t>-6,87; 10,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,42</t>
+          <t>-6,1; 11,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 15,63</t>
+          <t>-0,27; 19,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 11,09</t>
+          <t>-5,67; 13,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 9,52</t>
+          <t>-10,27; 8,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,16</t>
+          <t>-3,01; 20,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 10,43</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 6,73</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 16,99</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38,9%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 81,84</t>
+          <t>-40,62; 102,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 61,15</t>
+          <t>-36,92; 121,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 77,69</t>
+          <t>-8,48; 187,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 54,18</t>
+          <t>-18,44; 63,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 55,87</t>
+          <t>-33,05; 40,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 37,61</t>
+          <t>-10,23; 89,25</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 53,64</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,05; 36,62</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 91,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>34,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 15,81</t>
+          <t>-20,89; 31,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 33,48</t>
+          <t>-12,78; 59,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 18,02</t>
+          <t>4,21; 69,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 14,58</t>
+          <t>-16,99; 21,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 11,52</t>
+          <t>-20,6; 18,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 18,86</t>
+          <t>-17,46; 20,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 20,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 35,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 43,12</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>179,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>85,55%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 172,28</t>
+          <t>-63,87; 370,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,47; 379,64</t>
+          <t>-57,12; 1415,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 141,17</t>
+          <t>-2,42; 1167,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 105,38</t>
+          <t>-51,54; 160,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 82,19</t>
+          <t>-64,07; 142,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 141,48</t>
+          <t>-59,16; 142,39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-41,71; 146,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-37,77; 282,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 310,98</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,2</t>
+          <t>-3,88; 7,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,04</t>
+          <t>-4,06; 9,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,87</t>
+          <t>3,52; 19,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,54</t>
+          <t>-4,11; 8,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,35</t>
+          <t>-8,24; 4,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,65</t>
+          <t>-1,17; 13,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 6,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 4,32</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 13,06</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 41,84</t>
+          <t>-23,06; 74,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 49,09</t>
+          <t>-27,57; 89,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 31,47</t>
+          <t>20,12; 175,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 11,2</t>
+          <t>-14,49; 36,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 23,88</t>
+          <t>-28,34; 17,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 14,93</t>
+          <t>-4,57; 55,87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 37,42</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-22,74; 23,79</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 71,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
